--- a/biology/Zoologie/Les_Aventuriers_du_monde_perdu/Les_Aventuriers_du_monde_perdu.xlsx
+++ b/biology/Zoologie/Les_Aventuriers_du_monde_perdu/Les_Aventuriers_du_monde_perdu.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Les Aventuriers du monde perdu ou Le Monde Interdit[1],[2] (The Lost World) est une mini-série d'aventure fantastique britannique en deux parties réalisée par Stuart Orme d'après Le Monde perdu de Sir Arthur Conan Doyle. 
+Les Aventuriers du monde perdu ou Le Monde Interdit, (The Lost World) est une mini-série d'aventure fantastique britannique en deux parties réalisée par Stuart Orme d'après Le Monde perdu de Sir Arthur Conan Doyle. 
 Produit par la BBC, la mini-série met en scène Bob Hoskins, James Fox ou encore Peter Falk. Il a été diffusé pour la première au Royaume-Uni le 25 décembre 2001. Il a été diffusé en France l'année suivante, le 24 décembre 2002.
 </t>
         </is>
@@ -513,7 +525,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Londres, 1911. Une conférence paléontologique tenue par le professeur Summerlee est interrompue par le professeur Challenger, tout juste rentré d'une expédition en Amérique du Sud. Ce dernier avance l'hypothèse de l'existence de dinosaures vivants quelque part en Amazonie, sur un plateau encore inconnu et inexploré de l'Homme. Malgré l'hilarité de l'assemblée, il fait alors part de son projet d'expédition pour partir sur place et découvrir ce « monde perdu ». 
 Se joignent au voyage de Challenger le journaliste Edward Malone, le chasseur Lord John Roxton et le professeur Summerlee lui-même (qui, armé de son esprit critique académique, n'attend qu'une occasion pour prouver la supercherie de son confrère). Le jeune Malone s'embarque surtout pour sa fiancée Gladys, qu'il aimerait à tout prix séduire en lui prouvant sa valeur par un acte héroïque. À leur arrivée au Brésil après une longue traversée, ils vont trouver refuge chez le révérend Théo Kerr qui vit depuis très longtemps dans cette partie du monde en compagnie de sa nièce, Agnes Cluny. Après une courte halte dans leur mission, l'expédition repart en direction du plateau perdu en compagnie de la jeune femme, qui leur servira de guide dans la forêt Amazonienne qu'elle connaît depuis son plus jeune âge.
@@ -546,7 +560,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre : Les Aventuriers du monde perdu ou Le Monde interdit (DVD)
 Titre original : The Lost World
@@ -600,7 +616,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Bob Hoskins (VF : Marc De Georgi) : Professeur George Challenger
 James Fox (VF : Michel Le Royer) : Professeur Leo Summerlee
@@ -659,18 +677,89 @@
           <t>Production</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Le personnage d'Agnès, qui n'existe pas dans le roman original de Sir Arthur Conan Doyle, prend une grande place dans le scénario de la mini-série ; le réalisateur trouvant sans doute qu'une présence féminine dans l'expédition eût été préférable (à l'instar de la première adaptation cinématographique de 1925).
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le personnage d'Agnès, qui n'existe pas dans le roman original de Sir Arthur Conan Doyle, prend une grande place dans le scénario de la mini-série ; le réalisateur trouvant sans doute qu'une présence féminine dans l'expédition eût été préférable (à l'instar de la première adaptation cinématographique de 1925).
 La mini-série corrige les erreurs de Conan Doyle qui suivait les connaissances de son époque concernant les dinosaures (certaines affirmations du livre peuvent paraître aujourd'hui fantaisistes). C'est l'équipe du documentaire de la BBC Sur la terre des dinosaures qui s'est chargé des effets spéciaux, en proposant un bestiaire préhistorique beaucoup plus crédible. D’ailleurs, les modèles des créatures en question ne sont d'autres que ceux des deux séries populaires de la BBC, Sur la terre des dinosaures et Sur la terre des géants, qui ont été réutilisés, tout en étant un peu modifiés.
-Tournage
-The Lost World a presque entièrement été tournée en Nouvelle-Zélande[3] :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Les_Aventuriers_du_monde_perdu</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Les_Aventuriers_du_monde_perdu</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Production</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Tournage</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>The Lost World a presque entièrement été tournée en Nouvelle-Zélande :
 Flock Hill dans la région de Canterbury
 Parc national des lacs Nelson
 Bay of Plenty
-Musée d'histoire naturelle de Londres
-Différence entre le roman et la mini-série
-Dans le roman, Edward Malone est envoyé par son rédacteur-en-chef interviewer le terrible professeur Challenger. Le jeune journaliste se fait passer pour un étudiant en science pour mieux approcher le zoologiste à son domicile. Ce dernier le démasque et s'ensuit alors une violente altercation. Challenger finit par pardonner Malone, et l'invite à la conférence à l'Institut de Zoologie après lui avoir brièvement parlé de ses découvertes. Dans la mini-série, Malone rencontre Challenger directement lors de la conférence en accompagnant son rédacteur-en-chef.
+Musée d'histoire naturelle de Londres</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Les_Aventuriers_du_monde_perdu</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Les_Aventuriers_du_monde_perdu</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Production</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Différence entre le roman et la mini-série</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Dans le roman, Edward Malone est envoyé par son rédacteur-en-chef interviewer le terrible professeur Challenger. Le jeune journaliste se fait passer pour un étudiant en science pour mieux approcher le zoologiste à son domicile. Ce dernier le démasque et s'ensuit alors une violente altercation. Challenger finit par pardonner Malone, et l'invite à la conférence à l'Institut de Zoologie après lui avoir brièvement parlé de ses découvertes. Dans la mini-série, Malone rencontre Challenger directement lors de la conférence en accompagnant son rédacteur-en-chef.
 Dans le roman, Gladys n'est pas la fille du docteur Illingworth. Elle se nomme Hungerton.
 Dans le roman, Lord John Roxton invite Malone chez lui pour lui faire passer un test de bravoure avant de lui dévoiler sa collection d'armes à feu. Cette scène n'est pas dans la mini-série.
 Les personnages du révérend Théo Kerr et d'Agnès n'existent pas dans le roman.
